--- a/src/ifrost/models/3layerver.xlsx
+++ b/src/ifrost/models/3layerver.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="15" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="24" uniqueCount="3">
   <si>
     <t>Frequency</t>
   </si>
@@ -67,7 +67,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C86"/>
+  <dimension ref="A1:C100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -91,936 +91,1090 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>472331.61071791139</v>
+        <v>309216.72195662616</v>
       </c>
       <c r="B2" s="0">
-        <v>0.00077915116027542212</v>
+        <v>0.00036657182218076493</v>
       </c>
       <c r="C2" s="0">
-        <v>0.0063576472703800856</v>
+        <v>0.0042423235430433613</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>486842.77447561914</v>
+        <v>318716.60379200469</v>
       </c>
       <c r="B3" s="0">
-        <v>0.00082134866437680624</v>
+        <v>0.00038719680142109873</v>
       </c>
       <c r="C3" s="0">
-        <v>0.0065413022203460371</v>
+        <v>0.0043680584205119822</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>501799.75610539969</v>
+        <v>328508.34485904151</v>
       </c>
       <c r="B4" s="0">
-        <v>0.00086569898702111678</v>
+        <v>0.0004089308550189679</v>
       </c>
       <c r="C4" s="0">
-        <v>0.006729827938075866</v>
+        <v>0.004497332307713456</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>517216.25220515375</v>
+        <v>338600.91177569894</v>
       </c>
       <c r="B5" s="0">
-        <v>0.00091229415254529987</v>
+        <v>0.0004318295821390658</v>
       </c>
       <c r="C5" s="0">
-        <v>0.0069233193357787172</v>
+        <v>0.0046302323345830633</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>533106.38016523072</v>
+        <v>349003.54663602181</v>
       </c>
       <c r="B6" s="0">
-        <v>0.00096123661923443768</v>
+        <v>0.00045595106149163591</v>
       </c>
       <c r="C6" s="0">
-        <v>0.0071218789196877321</v>
+        <v>0.0047668469760948117</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>549484.69109618501</v>
+        <v>359725.77547342377</v>
       </c>
       <c r="B7" s="0">
-        <v>0.0010126327211943086</v>
+        <v>0.00048135593921750069</v>
       </c>
       <c r="C7" s="0">
-        <v>0.007325609003539766</v>
+        <v>0.0049072660208225481</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>566366.18315370637</v>
+        <v>370777.41698399116</v>
       </c>
       <c r="B8" s="0">
-        <v>0.0010665927592618835</v>
+        <v>0.00050810751829236437</v>
       </c>
       <c r="C8" s="0">
-        <v>0.0075346120421448636</v>
+        <v>0.0050515805353445716</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>583766.31527291727</v>
+        <v>382168.59151778265</v>
       </c>
       <c r="B9" s="0">
-        <v>0.0011232310900794805</v>
+        <v>0.0005362718494176746</v>
       </c>
       <c r="C9" s="0">
-        <v>0.0077489905709031111</v>
+        <v>0.0051998828242891208</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>601701.02132463246</v>
+        <v>393909.73034636519</v>
       </c>
       <c r="B10" s="0">
-        <v>0.0011826662129753062</v>
+        <v>0.00056591782344122133</v>
       </c>
       <c r="C10" s="0">
-        <v>0.0079688470923632241</v>
+        <v>0.0053522663858161087</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>620186.72470652265</v>
+        <v>406011.58521507186</v>
       </c>
       <c r="B11" s="0">
-        <v>0.0012450208542748656</v>
+        <v>0.00059711726556749159</v>
       </c>
       <c r="C11" s="0">
-        <v>0.0081942839450764131</v>
+        <v>0.0055088258623287234</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>639240.35338255786</v>
+        <v>418485.23818872619</v>
       </c>
       <c r="B12" s="0">
-        <v>0.0013104220486493546</v>
+        <v>0.00062994503226889039</v>
       </c>
       <c r="C12" s="0">
-        <v>0.0084254031617817856</v>
+        <v>0.005669656986207687</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>658879.3553844993</v>
+        <v>431342.11179985252</v>
       </c>
       <c r="B13" s="0">
-        <v>0.0013790012170887486</v>
+        <v>0.00066447911409182468</v>
       </c>
       <c r="C13" s="0">
-        <v>0.0086623063188274781</v>
+        <v>0.0058348565203607495</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>679121.71478963224</v>
+        <v>444593.97950866388</v>
       </c>
       <c r="B14" s="0">
-        <v>0.0014508942410700948</v>
+        <v>0.00070080075778278174</v>
       </c>
       <c r="C14" s="0">
-        <v>0.0089050943774363327</v>
+        <v>0.0060045221933805217</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>699985.96818937606</v>
+        <v>458252.97648440139</v>
       </c>
       <c r="B15" s="0">
-        <v>0.0015262415324747522</v>
+        <v>0.00073899469191567816</v>
       </c>
       <c r="C15" s="0">
-        <v>0.00915386751703017</v>
+        <v>0.0061787526291052159</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>721491.22166384792</v>
+        <v>472331.61071791139</v>
       </c>
       <c r="B16" s="0">
-        <v>0.0016051880987923417</v>
+        <v>0.00077915116027542212</v>
       </c>
       <c r="C16" s="0">
-        <v>0.0094087249606962901</v>
+        <v>0.0063576472703800856</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>743657.16827792197</v>
+        <v>486842.77447561914</v>
       </c>
       <c r="B17" s="0">
-        <v>0.0016878836031357627</v>
+        <v>0.00082134866437680624</v>
       </c>
       <c r="C17" s="0">
-        <v>0.0096697647928410783</v>
+        <v>0.0065413022203460371</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>766504.10611482</v>
+        <v>501799.75610539969</v>
       </c>
       <c r="B18" s="0">
-        <v>0.0017744824185794519</v>
+        <v>0.00086569898702111678</v>
       </c>
       <c r="C18" s="0">
-        <v>0.0099370837690731326</v>
+        <v>0.006729827938075866</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>790052.95686372812</v>
+        <v>517216.25220515375</v>
       </c>
       <c r="B19" s="0">
-        <v>0.0018651436763245869</v>
+        <v>0.00091229415254529987</v>
       </c>
       <c r="C19" s="0">
-        <v>0.01021077711837208</v>
+        <v>0.0069233193357787172</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>814325.28497847228</v>
+        <v>533106.38016523072</v>
       </c>
       <c r="B20" s="0">
-        <v>0.001960031307192705</v>
+        <v>0.00096123661923443768</v>
       </c>
       <c r="C20" s="0">
-        <v>0.010490938337621845</v>
+        <v>0.0071218789196877321</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>839343.31742479513</v>
+        <v>549484.69109618501</v>
       </c>
       <c r="B21" s="0">
-        <v>0.0020593140759539133</v>
+        <v>0.0010126327211943086</v>
       </c>
       <c r="C21" s="0">
-        <v>0.010777658978614747</v>
+        <v>0.007325609003539766</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>865129.9640343166</v>
+        <v>566366.18315370637</v>
       </c>
       <c r="B22" s="0">
-        <v>0.0021631656080169748</v>
+        <v>0.0010665927592618835</v>
       </c>
       <c r="C22" s="0">
-        <v>0.011071028427663677</v>
+        <v>0.0075346120421448636</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>891708.83848381718</v>
+        <v>583766.31527291727</v>
       </c>
       <c r="B23" s="0">
-        <v>0.0022717644080566288</v>
+        <v>0.0011232310900794805</v>
       </c>
       <c r="C23" s="0">
-        <v>0.011371133677993564</v>
+        <v>0.0077489905709031111</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>919104.27991905471</v>
+        <v>601701.02132463246</v>
       </c>
       <c r="B24" s="0">
-        <v>0.0023852938702533509</v>
+        <v>0.0011826662129753062</v>
       </c>
       <c r="C24" s="0">
-        <v>0.011678059095119354</v>
+        <v>0.0079688470923632241</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>947341.37524291955</v>
+        <v>620186.72470652265</v>
       </c>
       <c r="B25" s="0">
-        <v>0.0025039386916031704</v>
+        <v>0.0012450208542748656</v>
       </c>
       <c r="C25" s="0">
-        <v>0.011991885616542351</v>
+        <v>0.0081942839450764131</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>976445.98208832543</v>
+        <v>639240.35338255786</v>
       </c>
       <c r="B26" s="0">
-        <v>0.0026278986478433203</v>
+        <v>0.0013104220486493546</v>
       </c>
       <c r="C26" s="0">
-        <v>0.012312692763527399</v>
+        <v>0.0084254031617817856</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>1006444.7524969012</v>
+        <v>658879.3553844993</v>
       </c>
       <c r="B27" s="0">
-        <v>0.0027573685793835733</v>
+        <v>0.0013790012170887486</v>
       </c>
       <c r="C27" s="0">
-        <v>0.012640554960166658</v>
+        <v>0.0086623063188274781</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>1037365.1573251319</v>
+        <v>679121.71478963224</v>
       </c>
       <c r="B28" s="0">
-        <v>0.0028925512894793083</v>
+        <v>0.0014508942410700948</v>
       </c>
       <c r="C28" s="0">
-        <v>0.012975543584264955</v>
+        <v>0.0089050943774363327</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>1069235.5114003231</v>
+        <v>699985.96818937606</v>
       </c>
       <c r="B29" s="0">
-        <v>0.0030336543544938061</v>
+        <v>0.0015262415324747522</v>
       </c>
       <c r="C29" s="0">
-        <v>0.013317726117593543</v>
+        <v>0.00915386751703017</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>1102084.9994494151</v>
+        <v>721491.22166384792</v>
       </c>
       <c r="B30" s="0">
-        <v>0.0031808900666454956</v>
+        <v>0.0016051880987923417</v>
       </c>
       <c r="C30" s="0">
-        <v>0.01366716587580684</v>
+        <v>0.0094087249606962901</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>1135943.702824394</v>
+        <v>743657.16827792197</v>
       </c>
       <c r="B31" s="0">
-        <v>0.0033344753638400275</v>
+        <v>0.0016878836031357627</v>
       </c>
       <c r="C31" s="0">
-        <v>0.01402392173395922</v>
+        <v>0.0096697647928410783</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>1170842.6270487718</v>
+        <v>766504.10611482</v>
       </c>
       <c r="B32" s="0">
-        <v>0.0034946317460880011</v>
+        <v>0.0017744824185794519</v>
       </c>
       <c r="C32" s="0">
-        <v>0.014388047848179377</v>
+        <v>0.0099370837690731326</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>1206813.7302103522</v>
+        <v>790052.95686372812</v>
       </c>
       <c r="B33" s="0">
-        <v>0.0036615762214262156</v>
+        <v>0.0018651436763245869</v>
       </c>
       <c r="C33" s="0">
-        <v>0.014759580473822543</v>
+        <v>0.01021077711837208</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>1243889.9522263105</v>
+        <v>814325.28497847228</v>
       </c>
       <c r="B34" s="0">
-        <v>0.0038355565910648233</v>
+        <v>0.001960031307192705</v>
       </c>
       <c r="C34" s="0">
-        <v>0.01513859142638212</v>
+        <v>0.010490938337621845</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>1282105.2450073464</v>
+        <v>839343.31742479513</v>
       </c>
       <c r="B35" s="0">
-        <v>0.0040167988073802749</v>
+        <v>0.0020593140759539133</v>
       </c>
       <c r="C35" s="0">
-        <v>0.015525103226683108</v>
+        <v>0.010777658978614747</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>1321494.6035485617</v>
+        <v>865129.9640343166</v>
       </c>
       <c r="B36" s="0">
-        <v>0.0042055414872976121</v>
+        <v>0.0021631656080169748</v>
       </c>
       <c r="C36" s="0">
-        <v>0.015919148664943761</v>
+        <v>0.011071028427663677</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>1362094.0979755244</v>
+        <v>891708.83848381718</v>
       </c>
       <c r="B37" s="0">
-        <v>0.0044020271747207754</v>
+        <v>0.0022717644080566288</v>
       </c>
       <c r="C37" s="0">
-        <v>0.016320754191996748</v>
+        <v>0.011371133677993564</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>1403940.9065748637</v>
+        <v>919104.27991905471</v>
       </c>
       <c r="B38" s="0">
-        <v>0.0046065021703231802</v>
+        <v>0.0023852938702533509</v>
       </c>
       <c r="C38" s="0">
-        <v>0.016729939752863687</v>
+        <v>0.011678059095119354</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>1447073.3498396436</v>
+        <v>947341.37524291955</v>
       </c>
       <c r="B39" s="0">
-        <v>0.0048192163491651068</v>
+        <v>0.0025039386916031704</v>
       </c>
       <c r="C39" s="0">
-        <v>0.017146718541440849</v>
+        <v>0.011991885616542351</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>1491530.9255606951</v>
+        <v>976445.98208832543</v>
       </c>
       <c r="B40" s="0">
-        <v>0.0050404229707551986</v>
+        <v>0.0026278986478433203</v>
       </c>
       <c r="C40" s="0">
-        <v>0.017571096733767631</v>
+        <v>0.012312692763527399</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>1537354.3449960351</v>
+        <v>1006444.7524969012</v>
       </c>
       <c r="B41" s="0">
-        <v>0.0052703784935636769</v>
+        <v>0.0027573685793835733</v>
       </c>
       <c r="C41" s="0">
-        <v>0.01800307321598563</v>
+        <v>0.012640554960166658</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>1584585.570151503</v>
+        <v>1037365.1573251319</v>
       </c>
       <c r="B42" s="0">
-        <v>0.0055093313310931469</v>
+        <v>0.0028925512894793083</v>
       </c>
       <c r="C42" s="0">
-        <v>0.018442623142409808</v>
+        <v>0.012975543584264955</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>1633267.8522067301</v>
+        <v>1069235.5114003231</v>
       </c>
       <c r="B43" s="0">
-        <v>0.0057575647671827095</v>
+        <v>0.0030336543544938061</v>
       </c>
       <c r="C43" s="0">
-        <v>0.018889767417667163</v>
+        <v>0.013317726117593543</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>1683445.771121681</v>
+        <v>1102084.9994494151</v>
       </c>
       <c r="B44" s="0">
-        <v>0.0060153244491322772</v>
+        <v>0.0031808900666454956</v>
       </c>
       <c r="C44" s="0">
-        <v>0.019344447042421734</v>
+        <v>0.01366716587580684</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>1735165.2764599686</v>
+        <v>1135943.702824394</v>
       </c>
       <c r="B45" s="0">
-        <v>0.0062828878769268202</v>
+        <v>0.0033344753638400275</v>
       </c>
       <c r="C45" s="0">
-        <v>0.019806652097587092</v>
+        <v>0.01402392173395922</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>1788473.729466381</v>
+        <v>1170842.6270487718</v>
       </c>
       <c r="B46" s="0">
-        <v>0.0065605233270857209</v>
+        <v>0.0034946317460880011</v>
       </c>
       <c r="C46" s="0">
-        <v>0.020276328043633988</v>
+        <v>0.014388047848179377</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>1843419.9464371197</v>
+        <v>1206813.7302103522</v>
       </c>
       <c r="B47" s="0">
-        <v>0.0068484853926402021</v>
+        <v>0.0036615762214262156</v>
       </c>
       <c r="C47" s="0">
-        <v>0.020753429497872431</v>
+        <v>0.014759580473822543</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>1900054.2434224843</v>
+        <v>1243889.9522263105</v>
       </c>
       <c r="B48" s="0">
-        <v>0.0071470425115587512</v>
+        <v>0.0038355565910648233</v>
       </c>
       <c r="C48" s="0">
-        <v>0.021237881756096245</v>
+        <v>0.01513859142638212</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>1958428.4823029297</v>
+        <v>1282105.2450073464</v>
       </c>
       <c r="B49" s="0">
-        <v>0.0074564977388659236</v>
+        <v>0.0040167988073802749</v>
       </c>
       <c r="C49" s="0">
-        <v>0.02172965165312581</v>
+        <v>0.015525103226683108</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0">
-        <v>2018596.1182806739</v>
+        <v>1321494.6035485617</v>
       </c>
       <c r="B50" s="0">
-        <v>0.0077770923260545404</v>
+        <v>0.0042055414872976121</v>
       </c>
       <c r="C50" s="0">
-        <v>0.022228624115388746</v>
+        <v>0.015919148664943761</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0">
-        <v>2080612.2488303988</v>
+        <v>1362094.0979755244</v>
       </c>
       <c r="B51" s="0">
-        <v>0.0081090995042081993</v>
+        <v>0.0044020271747207754</v>
       </c>
       <c r="C51" s="0">
-        <v>0.022734727384356643</v>
+        <v>0.016320754191996748</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0">
-        <v>2144533.6641537999</v>
+        <v>1403940.9065748637</v>
       </c>
       <c r="B52" s="0">
-        <v>0.0084528020391448598</v>
+        <v>0.0046065021703231802</v>
       </c>
       <c r="C52" s="0">
-        <v>0.023247868958347941</v>
+        <v>0.016729939752863687</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0">
-        <v>2210418.899184233</v>
+        <v>1447073.3498396436</v>
       </c>
       <c r="B53" s="0">
-        <v>0.0088084679384046218</v>
+        <v>0.0048192163491651068</v>
       </c>
       <c r="C53" s="0">
-        <v>0.023767927539720912</v>
+        <v>0.017146718541440849</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0">
-        <v>2278328.2871890743</v>
+        <v>1491530.9255606951</v>
       </c>
       <c r="B54" s="0">
-        <v>0.0091763558196499406</v>
+        <v>0.0050404229707551986</v>
       </c>
       <c r="C54" s="0">
-        <v>0.024294800074312634</v>
+        <v>0.017571096733767631</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0">
-        <v>2348324.0150188669</v>
+        <v>1537354.3449960351</v>
       </c>
       <c r="B55" s="0">
-        <v>0.0095567469107278504</v>
+        <v>0.0052703784935636769</v>
       </c>
       <c r="C55" s="0">
-        <v>0.024828341039006854</v>
+        <v>0.01800307321598563</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0">
-        <v>2420470.1800538553</v>
+        <v>1584585.570151503</v>
       </c>
       <c r="B56" s="0">
-        <v>0.0099498710098713701</v>
+        <v>0.0055093313310931469</v>
       </c>
       <c r="C56" s="0">
-        <v>0.025368429897627991</v>
+        <v>0.018442623142409808</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0">
-        <v>2494832.8489000583</v>
+        <v>1633267.8522067301</v>
       </c>
       <c r="B57" s="0">
-        <v>0.010356013939815887</v>
+        <v>0.0057575647671827095</v>
       </c>
       <c r="C57" s="0">
-        <v>0.02591489995343825</v>
+        <v>0.018889767417667163</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="0">
-        <v>2571480.1178886271</v>
+        <v>1683445.771121681</v>
       </c>
       <c r="B58" s="0">
-        <v>0.010775436368670248</v>
+        <v>0.0060153244491322772</v>
       </c>
       <c r="C58" s="0">
-        <v>0.026467600903337583</v>
+        <v>0.019344447042421734</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="0">
-        <v>2650482.1754338653</v>
+        <v>1735165.2764599686</v>
       </c>
       <c r="B59" s="0">
-        <v>0.011208392069933352</v>
+        <v>0.0062828878769268202</v>
       </c>
       <c r="C59" s="0">
-        <v>0.02702637600245773</v>
+        <v>0.019806652097587092</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="0">
-        <v>2731911.3663070891</v>
+        <v>1788473.729466381</v>
       </c>
       <c r="B60" s="0">
-        <v>0.011655138027332769</v>
+        <v>0.0065605233270857209</v>
       </c>
       <c r="C60" s="0">
-        <v>0.027591056030202527</v>
+        <v>0.020276328043633988</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="0">
-        <v>2815842.2578850854</v>
+        <v>1843419.9464371197</v>
       </c>
       <c r="B61" s="0">
-        <v>0.012115883888972787</v>
+        <v>0.0068484853926402021</v>
       </c>
       <c r="C61" s="0">
-        <v>0.028161401209637171</v>
+        <v>0.020753429497872431</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="0">
-        <v>2902351.7084339014</v>
+        <v>1900054.2434224843</v>
       </c>
       <c r="B62" s="0">
-        <v>0.012590895234164887</v>
+        <v>0.0071470425115587512</v>
       </c>
       <c r="C62" s="0">
-        <v>0.028737244458180735</v>
+        <v>0.021237881756096245</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="0">
-        <v>2991518.937490481</v>
+        <v>1958428.4823029297</v>
       </c>
       <c r="B63" s="0">
-        <v>0.013080421699438341</v>
+        <v>0.0074564977388659236</v>
       </c>
       <c r="C63" s="0">
-        <v>0.029318399376490372</v>
+        <v>0.02172965165312581</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="0">
-        <v>3083425.598406584</v>
+        <v>2018596.1182806739</v>
       </c>
       <c r="B64" s="0">
-        <v>0.013584636906789278</v>
+        <v>0.0077770923260545404</v>
       </c>
       <c r="C64" s="0">
-        <v>0.029904593057332049</v>
+        <v>0.022228624115388746</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="0">
-        <v>3178155.8531214464</v>
+        <v>2080612.2488303988</v>
       </c>
       <c r="B65" s="0">
-        <v>0.014103813220164478</v>
+        <v>0.0081090995042081993</v>
       </c>
       <c r="C65" s="0">
-        <v>0.030495605162436927</v>
+        <v>0.022734727384356643</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="0">
-        <v>3275796.4492315929</v>
+        <v>2144533.6641537999</v>
       </c>
       <c r="B66" s="0">
-        <v>0.014638132816769789</v>
+        <v>0.0084528020391448598</v>
       </c>
       <c r="C66" s="0">
-        <v>0.031091245147672992</v>
+        <v>0.023247868958347941</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>3376436.7994284947</v>
+        <v>2210418.899184233</v>
       </c>
       <c r="B67" s="0">
-        <v>0.01518784555939221</v>
+        <v>0.0088084679384046218</v>
       </c>
       <c r="C67" s="0">
-        <v>0.031691236037603404</v>
+        <v>0.023767927539720912</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0">
-        <v>3480169.0633766702</v>
+        <v>2278328.2871890743</v>
       </c>
       <c r="B68" s="0">
-        <v>0.015753077498910265</v>
+        <v>0.0091763558196499406</v>
       </c>
       <c r="C68" s="0">
-        <v>0.032295291112517513</v>
+        <v>0.024294800074312634</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="0">
-        <v>3587088.232107318</v>
+        <v>2348324.0150188669</v>
       </c>
       <c r="B69" s="0">
-        <v>0.016334021101140423</v>
+        <v>0.0095567469107278504</v>
       </c>
       <c r="C69" s="0">
-        <v>0.032903161571968008</v>
+        <v>0.024828341039006854</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="0">
-        <v>3697292.2150047128</v>
+        <v>2420470.1800538553</v>
       </c>
       <c r="B70" s="0">
-        <v>0.016930912375365134</v>
+        <v>0.0099498710098713701</v>
       </c>
       <c r="C70" s="0">
-        <v>0.033514578690819675</v>
+        <v>0.025368429897627991</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="0">
-        <v>3810881.9294650336</v>
+        <v>2494832.8489000583</v>
       </c>
       <c r="B71" s="0">
-        <v>0.017543883564343679</v>
+        <v>0.010356013939815887</v>
       </c>
       <c r="C71" s="0">
-        <v>0.034129264184752914</v>
+        <v>0.02591489995343825</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="0">
-        <v>3927961.3933097324</v>
+        <v>2571480.1178886271</v>
       </c>
       <c r="B72" s="0">
-        <v>0.01817313798857784</v>
+        <v>0.010775436368670248</v>
       </c>
       <c r="C72" s="0">
-        <v>0.034746913889994124</v>
+        <v>0.026467600903337583</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="0">
-        <v>4048637.8200380574</v>
+        <v>2650482.1754338653</v>
       </c>
       <c r="B73" s="0">
-        <v>0.018818704630647401</v>
+        <v>0.011208392069933352</v>
       </c>
       <c r="C73" s="0">
-        <v>0.035367223012811401</v>
+        <v>0.02702637600245773</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="0">
-        <v>4173021.7170059611</v>
+        <v>2731911.3663070891</v>
       </c>
       <c r="B74" s="0">
-        <v>0.019480847268603819</v>
+        <v>0.011655138027332769</v>
       </c>
       <c r="C74" s="0">
-        <v>0.035989891309399939</v>
+        <v>0.027591056030202527</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="0">
-        <v>4301226.986621324</v>
+        <v>2815842.2578850854</v>
       </c>
       <c r="B75" s="0">
-        <v>0.020159609168275396</v>
+        <v>0.012115883888972787</v>
       </c>
       <c r="C75" s="0">
-        <v>0.036614622517095415</v>
+        <v>0.028161401209637171</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="0">
-        <v>4433371.0306480741</v>
+        <v>2902351.7084339014</v>
       </c>
       <c r="B76" s="0">
-        <v>0.020855136111871331</v>
+        <v>0.012590895234164887</v>
       </c>
       <c r="C76" s="0">
-        <v>0.037241053989908658</v>
+        <v>0.028737244458180735</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="0">
-        <v>4569574.8577148868</v>
+        <v>2991518.937490481</v>
       </c>
       <c r="B77" s="0">
-        <v>0.021567524059796971</v>
+        <v>0.013080421699438341</v>
       </c>
       <c r="C77" s="0">
-        <v>0.037868925043195702</v>
+        <v>0.029318399376490372</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="0">
-        <v>4709963.1941267103</v>
+        <v>3083425.598406584</v>
       </c>
       <c r="B78" s="0">
-        <v>0.022296874424757512</v>
+        <v>0.013584636906789278</v>
       </c>
       <c r="C78" s="0">
-        <v>0.038497854994314199</v>
+        <v>0.029904593057332049</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="0">
-        <v>4854664.5980807375</v>
+        <v>3178155.8531214464</v>
       </c>
       <c r="B79" s="0">
-        <v>0.023043199013969631</v>
+        <v>0.014103813220164478</v>
       </c>
       <c r="C79" s="0">
-        <v>0.039127504008614179</v>
+        <v>0.030495605162436927</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="0">
-        <v>5003811.5773913572</v>
+        <v>3275796.4492315929</v>
       </c>
       <c r="B80" s="0">
-        <v>0.02380662525301204</v>
+        <v>0.014638132816769789</v>
       </c>
       <c r="C80" s="0">
-        <v>0.039757562545008999</v>
+        <v>0.031091245147672992</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="0">
-        <v>5157540.7108319095</v>
+        <v>3376436.7994284947</v>
       </c>
       <c r="B81" s="0">
-        <v>0.024587186963239631</v>
+        <v>0.01518784555939221</v>
       </c>
       <c r="C81" s="0">
-        <v>0.04038772686087283</v>
+        <v>0.031691236037603404</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="0">
-        <v>5315992.7732042987</v>
+        <v>3480169.0633766702</v>
       </c>
       <c r="B82" s="0">
-        <v>0.025384875201017353</v>
+        <v>0.015753077498910265</v>
       </c>
       <c r="C82" s="0">
-        <v>0.04101754169720255</v>
+        <v>0.032295291112517513</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="0">
-        <v>5479312.8642511582</v>
+        <v>3587088.232107318</v>
       </c>
       <c r="B83" s="0">
-        <v>0.026199778982706125</v>
+        <v>0.016334021101140423</v>
       </c>
       <c r="C83" s="0">
-        <v>0.041646794679632296</v>
+        <v>0.032903161571968008</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="0">
-        <v>5647650.5415283814</v>
+        <v>3697292.2150047128</v>
       </c>
       <c r="B84" s="0">
-        <v>0.027031839506878222</v>
+        <v>0.016930912375365134</v>
       </c>
       <c r="C84" s="0">
-        <v>0.04227506591419547</v>
+        <v>0.033514578690819675</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="0">
-        <v>5821159.9573598988</v>
+        <v>3810881.9294650336</v>
       </c>
       <c r="B85" s="0">
-        <v>0.027881089940533319</v>
+        <v>0.017543883564343679</v>
       </c>
       <c r="C85" s="0">
-        <v>0.042901999675609398</v>
+        <v>0.034129264184752914</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="0">
+        <v>3927961.3933097324</v>
+      </c>
+      <c r="B86" s="0">
+        <v>0.01817313798857784</v>
+      </c>
+      <c r="C86" s="0">
+        <v>0.034746913889994124</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="0">
+        <v>4048637.8200380574</v>
+      </c>
+      <c r="B87" s="0">
+        <v>0.018818704630647401</v>
+      </c>
+      <c r="C87" s="0">
+        <v>0.035367223012811401</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="0">
+        <v>4173021.7170059611</v>
+      </c>
+      <c r="B88" s="0">
+        <v>0.019480847268603819</v>
+      </c>
+      <c r="C88" s="0">
+        <v>0.035989891309399939</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="0">
+        <v>4301226.986621324</v>
+      </c>
+      <c r="B89" s="0">
+        <v>0.020159609168275396</v>
+      </c>
+      <c r="C89" s="0">
+        <v>0.036614622517095415</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="0">
+        <v>4433371.0306480741</v>
+      </c>
+      <c r="B90" s="0">
+        <v>0.020855136111871331</v>
+      </c>
+      <c r="C90" s="0">
+        <v>0.037241053989908658</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="0">
+        <v>4569574.8577148868</v>
+      </c>
+      <c r="B91" s="0">
+        <v>0.021567524059796971</v>
+      </c>
+      <c r="C91" s="0">
+        <v>0.037868925043195702</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="0">
+        <v>4709963.1941267103</v>
+      </c>
+      <c r="B92" s="0">
+        <v>0.022296874424757512</v>
+      </c>
+      <c r="C92" s="0">
+        <v>0.038497854994314199</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="0">
+        <v>4854664.5980807375</v>
+      </c>
+      <c r="B93" s="0">
+        <v>0.023043199013969631</v>
+      </c>
+      <c r="C93" s="0">
+        <v>0.039127504008614179</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="0">
+        <v>5003811.5773913572</v>
+      </c>
+      <c r="B94" s="0">
+        <v>0.02380662525301204</v>
+      </c>
+      <c r="C94" s="0">
+        <v>0.039757562545008999</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="0">
+        <v>5157540.7108319095</v>
+      </c>
+      <c r="B95" s="0">
+        <v>0.024587186963239631</v>
+      </c>
+      <c r="C95" s="0">
+        <v>0.04038772686087283</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="0">
+        <v>5315992.7732042987</v>
+      </c>
+      <c r="B96" s="0">
+        <v>0.025384875201017353</v>
+      </c>
+      <c r="C96" s="0">
+        <v>0.04101754169720255</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="0">
+        <v>5479312.8642511582</v>
+      </c>
+      <c r="B97" s="0">
+        <v>0.026199778982706125</v>
+      </c>
+      <c r="C97" s="0">
+        <v>0.041646794679632296</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="0">
+        <v>5647650.5415283814</v>
+      </c>
+      <c r="B98" s="0">
+        <v>0.027031839506878222</v>
+      </c>
+      <c r="C98" s="0">
+        <v>0.04227506591419547</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="0">
+        <v>5821159.9573598988</v>
+      </c>
+      <c r="B99" s="0">
+        <v>0.027881089940533319</v>
+      </c>
+      <c r="C99" s="0">
+        <v>0.042901999675609398</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="0">
         <v>6000000.0000000037</v>
       </c>
-      <c r="B86" s="0">
+      <c r="B100" s="0">
         <v>0.028747524967090533</v>
       </c>
-      <c r="C86" s="0">
+      <c r="C100" s="0">
         <v>0.043527276959879402</v>
       </c>
     </row>
